--- a/InputData/trans/EoNVFEwFC/Elast of New Veh Fuel Econ wrt Fuel Cost.xlsx
+++ b/InputData/trans/EoNVFEwFC/Elast of New Veh Fuel Econ wrt Fuel Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\trans\EoNVFEwFC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\trans\EoNVFEwFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1A2FE-181E-4954-AFCE-51284346C535}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C01D9-A348-40EC-A8B5-672230201148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3675" windowWidth="29040" windowHeight="17265" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58140" yWindow="1605" windowWidth="24765" windowHeight="13890" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -851,22 +851,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="95.73046875" customWidth="1"/>
+    <col min="2" max="2" width="95.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -874,142 +874,142 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -1032,21 +1032,21 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.265625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="19.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="8" width="21.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F2">
         <f>Data!$B8*elec_fraction</f>
-        <v>7.9237540813189303E-2</v>
+        <v>7.9213424404916646E-2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="F4">
         <f>Data!$B$8*(1-elec_fraction)</f>
-        <v>0.16676245918681068</v>
+        <v>0.16678657559508331</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1354,21 +1354,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.86328125" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>53</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>58</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>-0.32400000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>59</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>60</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>-2.3999999999999994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>61</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>-0.24599999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>62</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>-9.8999999999999991E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>63</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>-9.8999999999999991E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>64</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>-9.8999999999999991E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>65</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>-1.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>66</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>-2.3999999999999994E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>-3.4253333333333323E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>68</v>
       </c>
@@ -1637,30 +1637,30 @@
   <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="1" max="1" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
@@ -1669,23 +1669,23 @@
       <c r="D5" s="9"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>86</v>
       </c>
       <c r="B7">
         <f>AVERAGE(C12:C13)</f>
-        <v>0.32210382444385899</v>
+        <v>0.32200579026388887</v>
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="9" spans="1:39" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:39" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>73</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -1811,118 +1811,118 @@
       </c>
       <c r="C10">
         <f>AVERAGE(D10:AM10)</f>
-        <v>0.27176472740084945</v>
+        <v>0.27116608333333336</v>
       </c>
       <c r="D10">
-        <v>0.26228063766191956</v>
+        <v>0.26236300000000001</v>
       </c>
       <c r="E10">
-        <v>0.26359319390798519</v>
+        <v>0.263932</v>
       </c>
       <c r="F10">
-        <v>0.2643112018155846</v>
+        <v>0.264797</v>
       </c>
       <c r="G10">
-        <v>0.26463209321580722</v>
+        <v>0.26519999999999999</v>
       </c>
       <c r="H10">
-        <v>0.26453042754932155</v>
+        <v>0.26513199999999998</v>
       </c>
       <c r="I10">
-        <v>0.26415015087812083</v>
+        <v>0.26469199999999998</v>
       </c>
       <c r="J10">
-        <v>0.26277507616159357</v>
+        <v>0.26296599999999998</v>
       </c>
       <c r="K10">
-        <v>0.26178790797394536</v>
+        <v>0.26173299999999999</v>
       </c>
       <c r="L10">
-        <v>0.2611870205028925</v>
+        <v>0.26097199999999998</v>
       </c>
       <c r="M10">
-        <v>0.26088942569552509</v>
+        <v>0.260569</v>
       </c>
       <c r="N10">
-        <v>0.2608131576849273</v>
+        <v>0.26041199999999998</v>
       </c>
       <c r="O10">
-        <v>0.26091657633982862</v>
+        <v>0.26044899999999999</v>
       </c>
       <c r="P10">
-        <v>0.26118951646492472</v>
+        <v>0.260662</v>
       </c>
       <c r="Q10">
-        <v>0.26159403200673342</v>
+        <v>0.26101200000000002</v>
       </c>
       <c r="R10">
-        <v>0.26216674008371382</v>
+        <v>0.26153199999999999</v>
       </c>
       <c r="S10">
-        <v>0.2629757919279001</v>
+        <v>0.26228800000000002</v>
       </c>
       <c r="T10">
-        <v>0.26401144531548526</v>
+        <v>0.26327200000000001</v>
       </c>
       <c r="U10">
-        <v>0.26525209998156529</v>
+        <v>0.26446399999999998</v>
       </c>
       <c r="V10">
-        <v>0.26666514392802393</v>
+        <v>0.26583000000000001</v>
       </c>
       <c r="W10">
-        <v>0.26820271129058149</v>
+        <v>0.26732400000000001</v>
       </c>
       <c r="X10">
-        <v>0.26981254834693658</v>
+        <v>0.26889600000000002</v>
       </c>
       <c r="Y10">
-        <v>0.27146269973192827</v>
+        <v>0.270511</v>
       </c>
       <c r="Z10">
-        <v>0.27311531616819679</v>
+        <v>0.27213399999999999</v>
       </c>
       <c r="AA10">
-        <v>0.2747552379590269</v>
+        <v>0.27374700000000002</v>
       </c>
       <c r="AB10">
-        <v>0.27636329820396216</v>
+        <v>0.27533000000000002</v>
       </c>
       <c r="AC10">
-        <v>0.27794981030361521</v>
+        <v>0.27689599999999998</v>
       </c>
       <c r="AD10">
-        <v>0.27951864758500633</v>
+        <v>0.27844600000000003</v>
       </c>
       <c r="AE10">
-        <v>0.28110467442254372</v>
+        <v>0.28001500000000001</v>
       </c>
       <c r="AF10">
-        <v>0.28272547791656338</v>
+        <v>0.28162100000000001</v>
       </c>
       <c r="AG10">
-        <v>0.28440997829981302</v>
+        <v>0.28329199999999999</v>
       </c>
       <c r="AH10">
-        <v>0.28617803690150306</v>
+        <v>0.28504800000000002</v>
       </c>
       <c r="AI10">
-        <v>0.28806035896558918</v>
+        <v>0.28691699999999998</v>
       </c>
       <c r="AJ10">
-        <v>0.29007245805231663</v>
+        <v>0.28892000000000001</v>
       </c>
       <c r="AK10">
-        <v>0.29225969775458571</v>
+        <v>0.29110200000000003</v>
       </c>
       <c r="AL10">
-        <v>0.29462468103135731</v>
+        <v>0.293466</v>
       </c>
       <c r="AM10">
-        <v>0.29719291440125567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
+        <v>0.29603699999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1931,118 +1931,118 @@
       </c>
       <c r="C11">
         <f>AVERAGE(D11:AM11)</f>
-        <v>0.21125392738484575</v>
+        <v>0.26228665616666669</v>
       </c>
       <c r="D11">
-        <v>0.24805315691689736</v>
+        <v>0.24809071099999999</v>
       </c>
       <c r="E11">
-        <v>0.24805315691689736</v>
+        <v>0.24809071099999999</v>
       </c>
       <c r="F11">
-        <v>0.2481050142161946</v>
+        <v>0.24816162899999999</v>
       </c>
       <c r="G11">
-        <v>0.24810272976369338</v>
+        <v>0.248188721</v>
       </c>
       <c r="H11">
-        <v>0.2480611726236838</v>
+        <v>0.248215776</v>
       </c>
       <c r="I11">
-        <v>0.24771450851818627</v>
+        <v>0.248344597</v>
       </c>
       <c r="J11">
-        <v>0.24747651434974044</v>
+        <v>0.248443887</v>
       </c>
       <c r="K11">
-        <v>0.24723453159570991</v>
+        <v>0.248548568</v>
       </c>
       <c r="L11">
-        <v>0.24693190624447817</v>
+        <v>0.248679546</v>
       </c>
       <c r="M11">
-        <v>0.2464416353261521</v>
+        <v>0.24888839600000001</v>
       </c>
       <c r="N11">
-        <v>0.24559524972211136</v>
+        <v>0.24924442999999999</v>
       </c>
       <c r="O11">
-        <v>0.24431474061877653</v>
+        <v>0.249780275</v>
       </c>
       <c r="P11">
-        <v>0.24253213485163427</v>
+        <v>0.25052411800000002</v>
       </c>
       <c r="Q11">
-        <v>0.24017972782413397</v>
+        <v>0.25150424900000001</v>
       </c>
       <c r="R11">
-        <v>0.23723285563282934</v>
+        <v>0.25272864900000003</v>
       </c>
       <c r="S11">
-        <v>0.23366650571755343</v>
+        <v>0.25420280000000001</v>
       </c>
       <c r="T11">
-        <v>0.22953099832977122</v>
+        <v>0.25589426300000001</v>
       </c>
       <c r="U11">
-        <v>0.22493454958175127</v>
+        <v>0.25774641599999998</v>
       </c>
       <c r="V11">
-        <v>0.22007503699864972</v>
+        <v>0.25966710799999998</v>
       </c>
       <c r="W11">
-        <v>0.21506857547000613</v>
+        <v>0.26161335499999999</v>
       </c>
       <c r="X11">
-        <v>0.21005044229240247</v>
+        <v>0.26353089099999999</v>
       </c>
       <c r="Y11">
-        <v>0.20511314460848429</v>
+        <v>0.26538806999999998</v>
       </c>
       <c r="Z11">
-        <v>0.2003177683749752</v>
+        <v>0.26716352700000001</v>
       </c>
       <c r="AA11">
-        <v>0.19569583375471525</v>
+        <v>0.26885134900000002</v>
       </c>
       <c r="AB11">
-        <v>0.19123608175044096</v>
+        <v>0.27045808399999999</v>
       </c>
       <c r="AC11">
-        <v>0.18691476408210217</v>
+        <v>0.27199604799999999</v>
       </c>
       <c r="AD11">
-        <v>0.182650464647543</v>
+        <v>0.27349602200000001</v>
       </c>
       <c r="AE11">
-        <v>0.17835132052625641</v>
+        <v>0.27499077399999999</v>
       </c>
       <c r="AF11">
-        <v>0.17394353827624637</v>
+        <v>0.27650433400000002</v>
       </c>
       <c r="AG11">
-        <v>0.16935859513264795</v>
+        <v>0.278058841</v>
       </c>
       <c r="AH11">
-        <v>0.16452135266697854</v>
+        <v>0.279674582</v>
       </c>
       <c r="AI11">
-        <v>0.15938337211830492</v>
+        <v>0.28136369700000002</v>
       </c>
       <c r="AJ11">
-        <v>0.15388629331785617</v>
+        <v>0.28314436900000001</v>
       </c>
       <c r="AK11">
-        <v>0.14797671882767899</v>
+        <v>0.28502833500000002</v>
       </c>
       <c r="AL11">
-        <v>0.14161058080243796</v>
+        <v>0.28701643500000001</v>
       </c>
       <c r="AM11">
-        <v>0.13482641345652482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
+        <v>0.28909605900000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -2051,118 +2051,118 @@
       </c>
       <c r="C12">
         <f t="shared" ref="C12:C13" si="0">AVERAGE(D12:AM12)</f>
-        <v>0.32210382444385899</v>
+        <v>0.32190775605555561</v>
       </c>
       <c r="D12">
-        <v>0.25727352788693197</v>
+        <v>0.25727352799999997</v>
       </c>
       <c r="E12">
-        <v>0.25727352788693197</v>
+        <v>0.25727352799999997</v>
       </c>
       <c r="F12">
-        <v>0.25780600092369998</v>
+        <v>0.25773989800000002</v>
       </c>
       <c r="G12">
-        <v>0.25804356238189252</v>
+        <v>0.25791958700000001</v>
       </c>
       <c r="H12">
-        <v>0.25812790669059332</v>
+        <v>0.25799545499999998</v>
       </c>
       <c r="I12">
-        <v>0.25809131927809464</v>
+        <v>0.25795852499999999</v>
       </c>
       <c r="J12">
-        <v>0.2580427137142759</v>
+        <v>0.257919699</v>
       </c>
       <c r="K12">
-        <v>0.25796843429493871</v>
+        <v>0.25784853400000002</v>
       </c>
       <c r="L12">
-        <v>0.25790879797188432</v>
+        <v>0.25781116199999998</v>
       </c>
       <c r="M12">
-        <v>0.25807693682588789</v>
+        <v>0.25793179500000002</v>
       </c>
       <c r="N12">
-        <v>0.25825823552835825</v>
+        <v>0.25806762700000002</v>
       </c>
       <c r="O12">
-        <v>0.25854777343975488</v>
+        <v>0.25831372600000002</v>
       </c>
       <c r="P12">
-        <v>0.25907883653115898</v>
+        <v>0.25880246499999998</v>
       </c>
       <c r="Q12">
-        <v>0.26004869611035586</v>
+        <v>0.25976272099999997</v>
       </c>
       <c r="R12">
-        <v>0.26125320919107331</v>
+        <v>0.26093688599999998</v>
       </c>
       <c r="S12">
-        <v>0.26299243115150922</v>
+        <v>0.26263476099999999</v>
       </c>
       <c r="T12">
-        <v>0.26531219402355993</v>
+        <v>0.264943241</v>
       </c>
       <c r="U12">
-        <v>0.26822083001610897</v>
+        <v>0.26783574300000002</v>
       </c>
       <c r="V12">
-        <v>0.27199992366152009</v>
+        <v>0.27159204999999997</v>
       </c>
       <c r="W12">
-        <v>0.27682873782100853</v>
+        <v>0.27640730800000002</v>
       </c>
       <c r="X12">
-        <v>0.28288133799560128</v>
+        <v>0.28245219399999999</v>
       </c>
       <c r="Y12">
-        <v>0.29011173132392676</v>
+        <v>0.28964295600000001</v>
       </c>
       <c r="Z12">
-        <v>0.29894196246043714</v>
+        <v>0.29853321500000002</v>
       </c>
       <c r="AA12">
-        <v>0.30954792399856151</v>
+        <v>0.30921496399999998</v>
       </c>
       <c r="AB12">
-        <v>0.32206273362763377</v>
+        <v>0.32179551099999998</v>
       </c>
       <c r="AC12">
-        <v>0.33614863340503198</v>
+        <v>0.33597387099999998</v>
       </c>
       <c r="AD12">
-        <v>0.35239308511072198</v>
+        <v>0.35229624799999998</v>
       </c>
       <c r="AE12">
-        <v>0.37059248314911358</v>
+        <v>0.37055123099999998</v>
       </c>
       <c r="AF12">
-        <v>0.39113304426510437</v>
+        <v>0.39111538299999998</v>
       </c>
       <c r="AG12">
-        <v>0.41344856261775098</v>
+        <v>0.41344410500000001</v>
       </c>
       <c r="AH12">
-        <v>0.43733287177550689</v>
+        <v>0.43732289800000002</v>
       </c>
       <c r="AI12">
-        <v>0.46216738861733225</v>
+        <v>0.46213369999999998</v>
       </c>
       <c r="AJ12">
-        <v>0.48782865987816593</v>
+        <v>0.48774993500000002</v>
       </c>
       <c r="AK12">
-        <v>0.51426458717224066</v>
+        <v>0.51415636200000003</v>
       </c>
       <c r="AL12">
-        <v>0.54024368472788842</v>
+        <v>0.54009332300000001</v>
       </c>
       <c r="AM12">
-        <v>0.56548539452436564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
+        <v>0.56523508300000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -2171,120 +2171,120 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.32210382444385899</v>
+        <v>0.32210382447222213</v>
       </c>
       <c r="D13">
-        <v>0.25727352788693197</v>
+        <v>0.25727352799999997</v>
       </c>
       <c r="E13">
-        <v>0.25727352788693197</v>
+        <v>0.25727352799999997</v>
       </c>
       <c r="F13">
-        <v>0.25780600092369998</v>
+        <v>0.25780600100000001</v>
       </c>
       <c r="G13">
-        <v>0.25804356238189252</v>
+        <v>0.258043562</v>
       </c>
       <c r="H13">
-        <v>0.25812790669059332</v>
+        <v>0.25812790699999999</v>
       </c>
       <c r="I13">
-        <v>0.25809131927809464</v>
+        <v>0.25809131899999999</v>
       </c>
       <c r="J13">
-        <v>0.2580427137142759</v>
+        <v>0.25804271400000001</v>
       </c>
       <c r="K13">
-        <v>0.25796843429493871</v>
+        <v>0.25796843400000002</v>
       </c>
       <c r="L13">
-        <v>0.25790879797188432</v>
+        <v>0.25790879799999999</v>
       </c>
       <c r="M13">
-        <v>0.25807693682588789</v>
+        <v>0.25807693700000001</v>
       </c>
       <c r="N13">
-        <v>0.25825823552835825</v>
+        <v>0.25825823599999997</v>
       </c>
       <c r="O13">
-        <v>0.25854777343975488</v>
+        <v>0.25854777299999998</v>
       </c>
       <c r="P13">
-        <v>0.25907883653115898</v>
+        <v>0.25907883700000001</v>
       </c>
       <c r="Q13">
-        <v>0.26004869611035586</v>
+        <v>0.26004869600000002</v>
       </c>
       <c r="R13">
-        <v>0.26125320919107331</v>
+        <v>0.26125320899999999</v>
       </c>
       <c r="S13">
-        <v>0.26299243115150922</v>
+        <v>0.26299243100000003</v>
       </c>
       <c r="T13">
-        <v>0.26531219402355993</v>
+        <v>0.265312194</v>
       </c>
       <c r="U13">
-        <v>0.26822083001610897</v>
+        <v>0.26822083000000002</v>
       </c>
       <c r="V13">
-        <v>0.27199992366152009</v>
+        <v>0.271999924</v>
       </c>
       <c r="W13">
-        <v>0.27682873782100853</v>
+        <v>0.27682873800000002</v>
       </c>
       <c r="X13">
-        <v>0.28288133799560128</v>
+        <v>0.28288133799999998</v>
       </c>
       <c r="Y13">
-        <v>0.29011173132392676</v>
+        <v>0.29011173099999998</v>
       </c>
       <c r="Z13">
-        <v>0.29894196246043714</v>
+        <v>0.29894196200000001</v>
       </c>
       <c r="AA13">
-        <v>0.30954792399856151</v>
+        <v>0.30954792399999997</v>
       </c>
       <c r="AB13">
-        <v>0.32206273362763377</v>
+        <v>0.32206273400000002</v>
       </c>
       <c r="AC13">
-        <v>0.33614863340503198</v>
+        <v>0.33614863299999997</v>
       </c>
       <c r="AD13">
-        <v>0.35239308511072198</v>
+        <v>0.35239308499999999</v>
       </c>
       <c r="AE13">
-        <v>0.37059248314911358</v>
+        <v>0.37059248299999997</v>
       </c>
       <c r="AF13">
-        <v>0.39113304426510437</v>
+        <v>0.39113304399999999</v>
       </c>
       <c r="AG13">
-        <v>0.41344856261775098</v>
+        <v>0.41344856299999999</v>
       </c>
       <c r="AH13">
-        <v>0.43733287177550689</v>
+        <v>0.43733287199999998</v>
       </c>
       <c r="AI13">
-        <v>0.46216738861733225</v>
+        <v>0.46216738899999998</v>
       </c>
       <c r="AJ13">
-        <v>0.48782865987816593</v>
+        <v>0.48782866000000003</v>
       </c>
       <c r="AK13">
-        <v>0.51426458717224066</v>
+        <v>0.514264587</v>
       </c>
       <c r="AL13">
-        <v>0.54024368472788842</v>
+        <v>0.54024368499999997</v>
       </c>
       <c r="AM13">
-        <v>0.56548539452436564</v>
+        <v>0.56548539499999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2292,23 +2292,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.73046875" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2331,7 +2333,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2343,7 +2345,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>3.4253333333333323E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2364,7 +2366,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2399,20 +2401,20 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.265625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="19.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="8" width="21.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -2438,7 +2440,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2457,7 +2459,7 @@
       </c>
       <c r="F2">
         <f>Data!$B3*elec_fraction</f>
-        <v>0.10436163911981032</v>
+        <v>0.10432987604549999</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2466,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2493,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2512,7 +2514,7 @@
       </c>
       <c r="F4">
         <f>Data!$B$3*(1-elec_fraction)</f>
-        <v>0.2196383608801897</v>
+        <v>0.2196701239545</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2548,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2574,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2626,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2723,17 +2725,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.265625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="19.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="8" width="21.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -2759,7 +2761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2778,7 +2780,7 @@
       </c>
       <c r="F2">
         <f>Data!$B$4*elec_fraction</f>
-        <v>3.1888278619942034E-2</v>
+        <v>3.1878573236124995E-2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2787,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2814,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2841,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2860,7 +2862,7 @@
       </c>
       <c r="F5">
         <f>Data!$B$4*(1-elec_fraction)</f>
-        <v>6.7111721380057957E-2</v>
+        <v>6.7121426763874989E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2869,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2895,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2921,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2947,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2973,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -3000,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3044,17 +3046,17 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.265625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="19.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="8" width="21.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -3080,7 +3082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3107,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3161,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3239,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3292,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -3318,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3362,17 +3364,17 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.265625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="19.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="8" width="21.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -3398,7 +3400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3452,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3479,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3506,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3532,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3558,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3584,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3610,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -3636,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3676,21 +3678,21 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.265625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="19.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="8" width="21.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -3716,7 +3718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3770,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3824,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3850,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3876,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3902,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3928,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -3954,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>

--- a/InputData/trans/EoNVFEwFC/Elast of New Veh Fuel Econ wrt Fuel Cost.xlsx
+++ b/InputData/trans/EoNVFEwFC/Elast of New Veh Fuel Econ wrt Fuel Cost.xlsx
@@ -1,36 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27021"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\EoNVFEwFC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\trans\EoNVFEwFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1A2FE-181E-4954-AFCE-51284346C535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="25875" windowHeight="11310"/>
+    <workbookView xWindow="38280" yWindow="3675" windowWidth="29040" windowHeight="17265" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Plug-in Hybrid Elec Fraction" sheetId="6" r:id="rId2"/>
-    <sheet name="Data" sheetId="2" r:id="rId3"/>
-    <sheet name="EoNVFEwFC-LDVs" sheetId="3" r:id="rId4"/>
-    <sheet name="EoNVFEwFC-HDVs" sheetId="5" r:id="rId5"/>
-    <sheet name="EoNVFEwFC-aircraft" sheetId="7" r:id="rId6"/>
-    <sheet name="EoNVFEwFC-rail" sheetId="8" r:id="rId7"/>
-    <sheet name="EoNVFEwFC-ships" sheetId="9" r:id="rId8"/>
-    <sheet name="EoNVFEwFC-motorbikes" sheetId="10" r:id="rId9"/>
+    <sheet name="Ricardo Energy &amp; Environment" sheetId="11" r:id="rId2"/>
+    <sheet name="Plug-in Hybrid Elec Fraction" sheetId="6" r:id="rId3"/>
+    <sheet name="Data" sheetId="2" r:id="rId4"/>
+    <sheet name="EoNVFEwFC-LDVs" sheetId="3" r:id="rId5"/>
+    <sheet name="EoNVFEwFC-HDVs" sheetId="5" r:id="rId6"/>
+    <sheet name="EoNVFEwFC-aircraft" sheetId="7" r:id="rId7"/>
+    <sheet name="EoNVFEwFC-rail" sheetId="8" r:id="rId8"/>
+    <sheet name="EoNVFEwFC-ships" sheetId="9" r:id="rId9"/>
+    <sheet name="EoNVFEwFC-motorbikes" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="elec_fraction">'Plug-in Hybrid Elec Fraction'!$A$5</definedName>
+    <definedName name="elec_fraction">'Plug-in Hybrid Elec Fraction'!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
   <si>
     <t>EoNVFEwFC Elasticity of New Veh Fuel Economy wrt Fuel Cost</t>
   </si>
@@ -38,37 +56,196 @@
     <t>Sources:</t>
   </si>
   <si>
+    <t>HDVs, LDVs, Rail, Shipping</t>
+  </si>
+  <si>
+    <t>Ricardo Energy &amp; Environment</t>
+  </si>
+  <si>
+    <t>SULTAN modelling to explore the wider potential impacts of transport GHG reduction policies in 2030 - Report for the European Climate Foundation</t>
+  </si>
+  <si>
+    <t>http://www.transport-ncps.net/wp-content/uploads/plikownia/TOOLbox/Documents-Repository/CROSS%20CUTTING/ECF%20-%20European%20Climate%20Foundation/ECF__%20Potential_impacts_of_Tansport_GHG_Reduction_policy_%20in_2030_2016.pdf</t>
+  </si>
+  <si>
+    <t>Pg. 34, Table A12: Fuel price elasticities used in the definition of illustrative scenarios modelled in SULTAN</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>Transport &amp; Environment</t>
+  </si>
+  <si>
+    <t>Roadmap to decarbonising European aviation</t>
+  </si>
+  <si>
+    <t>https://www.transportenvironment.org/publications/roadmap-decarbonising-european-aviation</t>
+  </si>
+  <si>
+    <t>Pg. 27-28, Price elasticities</t>
+  </si>
+  <si>
+    <t>fraction of electricity used by plug-in hybrids</t>
+  </si>
+  <si>
+    <t>European Commission - Joint Research Centre (JRC)</t>
+  </si>
+  <si>
+    <t>EU28: Potencia Central Scenario</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/jrc/en/publication/eur-scientific-and-technical-research-reports/potencia-central-scenario-eu-energy-outlook-2050</t>
+  </si>
+  <si>
+    <t>Based on Central_2018_EU28_tra_det_yearly.xlsx - TRA_VEffInv</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>We use elastiticies of zero for any fuel type that is not used by a given vehicle technology,</t>
+  </si>
+  <si>
+    <t>or that is not used very much by a given vehicle technology (such as the two biofuels), since</t>
+  </si>
+  <si>
+    <t>new vehicle fuel economy will be influenced only by the most common sort of fuel or fuels</t>
+  </si>
+  <si>
+    <t>burned by that vehicle and that technology type.</t>
+  </si>
+  <si>
+    <t>For plug-in hybrids, we divide the elasticity between electricity and the main combustible</t>
+  </si>
+  <si>
+    <t>fuel according to the fraction of electricity used by plug-in hybrids.</t>
+  </si>
+  <si>
+    <t>For ships, we divide the elasticity between diesel fuel and residual fuel oil according</t>
+  </si>
+  <si>
+    <t>to the fraction of each of these fuel types used by freight ships in the start year.</t>
+  </si>
+  <si>
+    <t>However, based on the variable BPoEFUbVT, diesel freight ships use exclusively diesel fuel in all years.</t>
+  </si>
+  <si>
+    <t>Thus all elasticity is thus effectively assigned to diesel fuel.</t>
+  </si>
+  <si>
+    <t>Table A12: Fuel price elasticities used in the definition of illustrative scenarios modelled in SULTAN Mode</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Elasticity</t>
+  </si>
+  <si>
+    <t>% Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% New Vehicle </t>
+  </si>
+  <si>
+    <t>Elasticity Demand</t>
+  </si>
+  <si>
+    <t>Elasticity New Vehicle</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Passenger Rail</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>LCV</t>
+  </si>
+  <si>
+    <t>Medium Truck</t>
+  </si>
+  <si>
+    <t>Heavy Truck</t>
+  </si>
+  <si>
+    <t>Inland Shipping</t>
+  </si>
+  <si>
+    <t>Freight Rail</t>
+  </si>
+  <si>
+    <t>Own Assumption</t>
+  </si>
+  <si>
+    <t>Source: Ricardo Energy &amp; Environment (2016) based on UK MARKAL ED model (AEA, 2008)</t>
+  </si>
+  <si>
+    <t>Plug-in hybrids can accept either electricity or combustible fuels.</t>
+  </si>
+  <si>
+    <t>This sheet specifies the percentage of driving for which electricity is used.</t>
+  </si>
+  <si>
+    <t>This estimate is based on the average value projected from the POTENCIA Scenario for Plug-in HDV from 2015-2050</t>
+  </si>
+  <si>
+    <t>Perc of Electricity Use for Plug-In Hybrid Vehicles</t>
+  </si>
+  <si>
+    <t>Source: JRC POTEnCIA Scenario; also used in BPoEFUbVT</t>
+  </si>
+  <si>
+    <t>Electricity share (based on HDV average)</t>
+  </si>
+  <si>
+    <t>Percentage Fuel Use (dimensionless)</t>
+  </si>
+  <si>
+    <t>Average ('15-'50)</t>
+  </si>
+  <si>
+    <t>BPoEFUbVT-LDVs-psgr-plghyb</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>BPoEFUbVT-LDVs-frgt-plghyb</t>
+  </si>
+  <si>
+    <t>BPoEFUbVT-HDVs-psgr-plghyb</t>
+  </si>
+  <si>
+    <t>BPoEFUbVT-HDVs-frgt-plghyb</t>
+  </si>
+  <si>
+    <t>Elasticities</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>LDVs</t>
   </si>
   <si>
-    <t>Small, Kenneth A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Policies for Automobile Transportation: A Comparison Using the National Energy Modeling System </t>
-  </si>
-  <si>
-    <t>http://www.rff.org/Documents/Features/NEPI/RFF-BCK-Small-AutoPolicies.pdf</t>
-  </si>
-  <si>
-    <t>Pages 32-33</t>
+    <t>Passenger vehicle values assumed</t>
   </si>
   <si>
     <t>HDVs</t>
   </si>
   <si>
-    <t xml:space="preserve">Harrington, W., Krupnick, A. </t>
-  </si>
-  <si>
-    <t>Improving Fuel Economy in Heavy-Duty Vehicles</t>
-  </si>
-  <si>
-    <t>http://www.rff.org/documents/RFF-DP-12-02.pdf</t>
-  </si>
-  <si>
-    <t>Page 36</t>
-  </si>
-  <si>
-    <t>Vehicle Type</t>
+    <t>Heavy Truck values assumed</t>
   </si>
   <si>
     <t>aircraft</t>
@@ -77,22 +254,19 @@
     <t>rail</t>
   </si>
   <si>
+    <t>Freight rail values assumed</t>
+  </si>
+  <si>
     <t>ships</t>
   </si>
   <si>
+    <t>Inland shipping values assumed</t>
+  </si>
+  <si>
     <t>motorbikes</t>
   </si>
   <si>
-    <t>Elasticity</t>
-  </si>
-  <si>
-    <t>Assumed to be the same as HDVs.</t>
-  </si>
-  <si>
-    <t>Assumed to be the same as LDVs.</t>
-  </si>
-  <si>
-    <t>Note</t>
+    <t>Elasticity (dimensionless)</t>
   </si>
   <si>
     <t>battery electric vehicle</t>
@@ -110,10 +284,10 @@
     <t>plugin hybrid vehicle</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>electricity</t>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
   </si>
   <si>
     <t>natural gas</t>
@@ -134,63 +308,6 @@
     <t>jet fuel</t>
   </si>
   <si>
-    <t>We use elastiticies of zero for any fuel type that is not used by a given vehicle technology,</t>
-  </si>
-  <si>
-    <t>or that is not used very much by a given vehicle technology (such as the two biofuels), since</t>
-  </si>
-  <si>
-    <t>new vehicle fuel economy will be influenced only by the most common sort of fuel or fuels</t>
-  </si>
-  <si>
-    <t>burned by that vehicle and that technology type.</t>
-  </si>
-  <si>
-    <t>fraction of electricity used by plug-in hybrids</t>
-  </si>
-  <si>
-    <t>DoE Alternative Fuels Data Center</t>
-  </si>
-  <si>
-    <t>year unspecified</t>
-  </si>
-  <si>
-    <t>Hybrid and Plug-In Electric Vehicle Emissions Data Sources and Assumptions</t>
-  </si>
-  <si>
-    <t>https://www.afdc.energy.gov/vehicles/electric_emissions_sources.html</t>
-  </si>
-  <si>
-    <t>Second-to-last parameter in the table</t>
-  </si>
-  <si>
-    <t>Plug-in hybrids can accept either electricity or combustible fuels.</t>
-  </si>
-  <si>
-    <t>This sheet specifies the percentage of driving for which electricity is used.</t>
-  </si>
-  <si>
-    <t>Electricity fraction</t>
-  </si>
-  <si>
-    <t>Our data source (DoE Alternative Fuels Data Center, as specified on the</t>
-  </si>
-  <si>
-    <t>"About" tab) includes the following source information, indicating</t>
-  </si>
-  <si>
-    <t>where they obtained their number:</t>
-  </si>
-  <si>
-    <t>Estimate based on the current industry standard, SAE J2841 (available in http://avt.inel.gov/pdf/EVProj/EVProjectUtilityFactorVolt.pdf), assuming the PHEV all-electric range is 33 miles.</t>
-  </si>
-  <si>
-    <t>For plug-in hybrids, we divide the elasticity between electricity and the main combustible</t>
-  </si>
-  <si>
-    <t>fuel according to the fraction of electricity used by plug-in hybrids.</t>
-  </si>
-  <si>
     <t>heavy or residual fuel oil</t>
   </si>
   <si>
@@ -198,52 +315,16 @@
   </si>
   <si>
     <t>hydrogen</t>
-  </si>
-  <si>
-    <t>For ships, we divide the elasticity between diesel fuel and residual fuel oil according</t>
-  </si>
-  <si>
-    <t>to the fraction of each of these fuel types used by freight ships in the start year.</t>
-  </si>
-  <si>
-    <t>Elasticities</t>
-  </si>
-  <si>
-    <t>trillion BTU</t>
-  </si>
-  <si>
-    <t>Fraction of Fuel Used by Freight Ships (2017)</t>
-  </si>
-  <si>
-    <t>sum of domestic and international freight shipping</t>
-  </si>
-  <si>
-    <t>fraction</t>
-  </si>
-  <si>
-    <t>fraction of fuel used by freight ships</t>
-  </si>
-  <si>
-    <t>See variable trans/BPoEFUbVT</t>
-  </si>
-  <si>
-    <t>LPG vehicle</t>
-  </si>
-  <si>
-    <t>hydrogen vehicle</t>
-  </si>
-  <si>
-    <t>Elasticity (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,8 +376,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +449,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyProtection="0">
@@ -375,8 +469,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -387,27 +482,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="2"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="4"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Parent row" xfId="7"/>
-    <cellStyle name="Table title" xfId="8"/>
+  <cellStyles count="10">
+    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Prozent" xfId="9" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Table title" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,9 +529,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -463,9 +569,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,7 +606,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -708,23 +814,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="95.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -732,382 +840,169 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:2" ht="57">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="3">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:2">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" display="http://www.transport-ncps.net/wp-content/uploads/plikownia/TOOLbox/Documents-Repository/CROSS CUTTING/ECF - European Climate Foundation/ECF__ Potential_impacts_of_Tansport_GHG_Reduction_policy_ in_2030_2016.pdf" xr:uid="{EE111A06-A67B-40F4-9A43-F3400FE63BFD}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{BD05241D-31E5-45D9-B49E-1131420660B4}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{A90E29E2-6F89-452F-AB59-44810302756D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <f>B$4</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ref="B6:B7" si="0">B$4</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <f>B$3</f>
-        <v>0.1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <f>522+285</f>
-        <v>807</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16">
-        <f>3+675</f>
-        <v>678</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="11">
-        <f>B15/SUM(B$15:B$16)</f>
-        <v>0.54343434343434338</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="11">
-        <f>B16/SUM(B$15:B$16)</f>
-        <v>0.45656565656565656</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -1117,39 +1012,39 @@
     <col min="6" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <f>Data!$B$3</f>
-        <v>0.1</v>
+        <f>Data!$B$8</f>
+        <v>0.24599999999999997</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1161,8 +1056,8 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>Data!$B3*elec_fraction</f>
-        <v>5.5000000000000007E-2</v>
+        <f>Data!$B8*elec_fraction</f>
+        <v>7.9237540813189303E-2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1171,244 +1066,1289 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Data!$B$8</f>
+        <v>0.24599999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Data!$B$8</f>
+        <v>0.24599999999999997</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>Data!$B$8*(1-elec_fraction)</f>
+        <v>0.16676245918681068</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Data!$B$8</f>
+        <v>0.24599999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>Data!$B$8</f>
+        <v>0.24599999999999997</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>Data!$B$8</f>
+        <v>0.24599999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1035AD59-4430-4221-A983-CB96B872D250}">
+  <dimension ref="A2:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>Data!$B$3</f>
-        <v>0.1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>Data!$B$3</f>
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>Data!$B$3*(1-elec_fraction)</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>Data!$B$3</f>
-        <v>0.1</v>
+        <v>-0.54</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="12">
+        <f>1-D5</f>
+        <v>0.6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f>C5*D5</f>
+        <v>-0.21600000000000003</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <f>C5*E5</f>
+        <v>-0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>-0.38</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" ref="E6:E14" si="0">1-D6</f>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f t="shared" ref="F6:F13" si="1">C6*D6</f>
+        <v>-0.19</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G6:G13" si="2">C6*E6</f>
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <f>-0.24</f>
+        <v>-0.24</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-0.216</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>-2.3999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>-0.41</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>-0.24599999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>-0.3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-0.20100000000000001</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>-9.8999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>-0.3</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-0.20100000000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>-9.8999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>-0.3</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-0.20100000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>-9.8999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>-0.18</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>-1.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>-0.24</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>-0.216</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>-2.3999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13">
+        <f>F14/0.9</f>
+        <v>-0.3425333333333333</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>-0.30828</v>
+      </c>
+      <c r="G14" s="8">
+        <f>C14*E14</f>
+        <v>-3.4253333333333323E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AM13"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <f>AVERAGE(C12:C13)</f>
+        <v>0.32210382444385899</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="9" spans="1:39" ht="57">
+      <c r="A9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2016</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2017</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2018</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2019</v>
+      </c>
+      <c r="I9" s="9">
+        <v>2020</v>
+      </c>
+      <c r="J9" s="9">
+        <v>2021</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2022</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2023</v>
+      </c>
+      <c r="M9" s="9">
+        <v>2024</v>
+      </c>
+      <c r="N9" s="9">
+        <v>2025</v>
+      </c>
+      <c r="O9" s="9">
+        <v>2026</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2027</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>2028</v>
+      </c>
+      <c r="R9" s="9">
+        <v>2029</v>
+      </c>
+      <c r="S9" s="9">
+        <v>2030</v>
+      </c>
+      <c r="T9" s="9">
+        <v>2031</v>
+      </c>
+      <c r="U9" s="9">
+        <v>2032</v>
+      </c>
+      <c r="V9" s="9">
+        <v>2033</v>
+      </c>
+      <c r="W9" s="9">
+        <v>2034</v>
+      </c>
+      <c r="X9" s="9">
+        <v>2035</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>2036</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>2037</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>2038</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>2039</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>2040</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>2041</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>2042</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>2043</v>
+      </c>
+      <c r="AG9" s="9">
+        <v>2044</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>2045</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>2046</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>2047</v>
+      </c>
+      <c r="AK9" s="9">
+        <v>2048</v>
+      </c>
+      <c r="AL9" s="9">
+        <v>2049</v>
+      </c>
+      <c r="AM9" s="9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f>AVERAGE(D10:AM10)</f>
+        <v>0.27176472740084945</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.26228063766191956</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.26359319390798519</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.2643112018155846</v>
       </c>
       <c r="G10">
-        <f>Data!$B$3</f>
-        <v>0.1</v>
+        <v>0.26463209321580722</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.26453042754932155</v>
+      </c>
+      <c r="I10">
+        <v>0.26415015087812083</v>
+      </c>
+      <c r="J10">
+        <v>0.26277507616159357</v>
+      </c>
+      <c r="K10">
+        <v>0.26178790797394536</v>
+      </c>
+      <c r="L10">
+        <v>0.2611870205028925</v>
+      </c>
+      <c r="M10">
+        <v>0.26088942569552509</v>
+      </c>
+      <c r="N10">
+        <v>0.2608131576849273</v>
+      </c>
+      <c r="O10">
+        <v>0.26091657633982862</v>
+      </c>
+      <c r="P10">
+        <v>0.26118951646492472</v>
+      </c>
+      <c r="Q10">
+        <v>0.26159403200673342</v>
+      </c>
+      <c r="R10">
+        <v>0.26216674008371382</v>
+      </c>
+      <c r="S10">
+        <v>0.2629757919279001</v>
+      </c>
+      <c r="T10">
+        <v>0.26401144531548526</v>
+      </c>
+      <c r="U10">
+        <v>0.26525209998156529</v>
+      </c>
+      <c r="V10">
+        <v>0.26666514392802393</v>
+      </c>
+      <c r="W10">
+        <v>0.26820271129058149</v>
+      </c>
+      <c r="X10">
+        <v>0.26981254834693658</v>
+      </c>
+      <c r="Y10">
+        <v>0.27146269973192827</v>
+      </c>
+      <c r="Z10">
+        <v>0.27311531616819679</v>
+      </c>
+      <c r="AA10">
+        <v>0.2747552379590269</v>
+      </c>
+      <c r="AB10">
+        <v>0.27636329820396216</v>
+      </c>
+      <c r="AC10">
+        <v>0.27794981030361521</v>
+      </c>
+      <c r="AD10">
+        <v>0.27951864758500633</v>
+      </c>
+      <c r="AE10">
+        <v>0.28110467442254372</v>
+      </c>
+      <c r="AF10">
+        <v>0.28272547791656338</v>
+      </c>
+      <c r="AG10">
+        <v>0.28440997829981302</v>
+      </c>
+      <c r="AH10">
+        <v>0.28617803690150306</v>
+      </c>
+      <c r="AI10">
+        <v>0.28806035896558918</v>
+      </c>
+      <c r="AJ10">
+        <v>0.29007245805231663</v>
+      </c>
+      <c r="AK10">
+        <v>0.29225969775458571</v>
+      </c>
+      <c r="AL10">
+        <v>0.29462468103135731</v>
+      </c>
+      <c r="AM10">
+        <v>0.29719291440125567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>0</v>
+        <f>AVERAGE(D11:AM11)</f>
+        <v>0.21125392738484575</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.24805315691689736</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.24805315691689736</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.2481050142161946</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.24810272976369338</v>
       </c>
       <c r="H11">
-        <f>Data!$B$3</f>
-        <v>0.1</v>
+        <v>0.2480611726236838</v>
+      </c>
+      <c r="I11">
+        <v>0.24771450851818627</v>
+      </c>
+      <c r="J11">
+        <v>0.24747651434974044</v>
+      </c>
+      <c r="K11">
+        <v>0.24723453159570991</v>
+      </c>
+      <c r="L11">
+        <v>0.24693190624447817</v>
+      </c>
+      <c r="M11">
+        <v>0.2464416353261521</v>
+      </c>
+      <c r="N11">
+        <v>0.24559524972211136</v>
+      </c>
+      <c r="O11">
+        <v>0.24431474061877653</v>
+      </c>
+      <c r="P11">
+        <v>0.24253213485163427</v>
+      </c>
+      <c r="Q11">
+        <v>0.24017972782413397</v>
+      </c>
+      <c r="R11">
+        <v>0.23723285563282934</v>
+      </c>
+      <c r="S11">
+        <v>0.23366650571755343</v>
+      </c>
+      <c r="T11">
+        <v>0.22953099832977122</v>
+      </c>
+      <c r="U11">
+        <v>0.22493454958175127</v>
+      </c>
+      <c r="V11">
+        <v>0.22007503699864972</v>
+      </c>
+      <c r="W11">
+        <v>0.21506857547000613</v>
+      </c>
+      <c r="X11">
+        <v>0.21005044229240247</v>
+      </c>
+      <c r="Y11">
+        <v>0.20511314460848429</v>
+      </c>
+      <c r="Z11">
+        <v>0.2003177683749752</v>
+      </c>
+      <c r="AA11">
+        <v>0.19569583375471525</v>
+      </c>
+      <c r="AB11">
+        <v>0.19123608175044096</v>
+      </c>
+      <c r="AC11">
+        <v>0.18691476408210217</v>
+      </c>
+      <c r="AD11">
+        <v>0.182650464647543</v>
+      </c>
+      <c r="AE11">
+        <v>0.17835132052625641</v>
+      </c>
+      <c r="AF11">
+        <v>0.17394353827624637</v>
+      </c>
+      <c r="AG11">
+        <v>0.16935859513264795</v>
+      </c>
+      <c r="AH11">
+        <v>0.16452135266697854</v>
+      </c>
+      <c r="AI11">
+        <v>0.15938337211830492</v>
+      </c>
+      <c r="AJ11">
+        <v>0.15388629331785617</v>
+      </c>
+      <c r="AK11">
+        <v>0.14797671882767899</v>
+      </c>
+      <c r="AL11">
+        <v>0.14161058080243796</v>
+      </c>
+      <c r="AM11">
+        <v>0.13482641345652482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C13" si="0">AVERAGE(D12:AM12)</f>
+        <v>0.32210382444385899</v>
+      </c>
+      <c r="D12">
+        <v>0.25727352788693197</v>
+      </c>
+      <c r="E12">
+        <v>0.25727352788693197</v>
+      </c>
+      <c r="F12">
+        <v>0.25780600092369998</v>
+      </c>
+      <c r="G12">
+        <v>0.25804356238189252</v>
+      </c>
+      <c r="H12">
+        <v>0.25812790669059332</v>
+      </c>
+      <c r="I12">
+        <v>0.25809131927809464</v>
+      </c>
+      <c r="J12">
+        <v>0.2580427137142759</v>
+      </c>
+      <c r="K12">
+        <v>0.25796843429493871</v>
+      </c>
+      <c r="L12">
+        <v>0.25790879797188432</v>
+      </c>
+      <c r="M12">
+        <v>0.25807693682588789</v>
+      </c>
+      <c r="N12">
+        <v>0.25825823552835825</v>
+      </c>
+      <c r="O12">
+        <v>0.25854777343975488</v>
+      </c>
+      <c r="P12">
+        <v>0.25907883653115898</v>
+      </c>
+      <c r="Q12">
+        <v>0.26004869611035586</v>
+      </c>
+      <c r="R12">
+        <v>0.26125320919107331</v>
+      </c>
+      <c r="S12">
+        <v>0.26299243115150922</v>
+      </c>
+      <c r="T12">
+        <v>0.26531219402355993</v>
+      </c>
+      <c r="U12">
+        <v>0.26822083001610897</v>
+      </c>
+      <c r="V12">
+        <v>0.27199992366152009</v>
+      </c>
+      <c r="W12">
+        <v>0.27682873782100853</v>
+      </c>
+      <c r="X12">
+        <v>0.28288133799560128</v>
+      </c>
+      <c r="Y12">
+        <v>0.29011173132392676</v>
+      </c>
+      <c r="Z12">
+        <v>0.29894196246043714</v>
+      </c>
+      <c r="AA12">
+        <v>0.30954792399856151</v>
+      </c>
+      <c r="AB12">
+        <v>0.32206273362763377</v>
+      </c>
+      <c r="AC12">
+        <v>0.33614863340503198</v>
+      </c>
+      <c r="AD12">
+        <v>0.35239308511072198</v>
+      </c>
+      <c r="AE12">
+        <v>0.37059248314911358</v>
+      </c>
+      <c r="AF12">
+        <v>0.39113304426510437</v>
+      </c>
+      <c r="AG12">
+        <v>0.41344856261775098</v>
+      </c>
+      <c r="AH12">
+        <v>0.43733287177550689</v>
+      </c>
+      <c r="AI12">
+        <v>0.46216738861733225</v>
+      </c>
+      <c r="AJ12">
+        <v>0.48782865987816593</v>
+      </c>
+      <c r="AK12">
+        <v>0.51426458717224066</v>
+      </c>
+      <c r="AL12">
+        <v>0.54024368472788842</v>
+      </c>
+      <c r="AM12">
+        <v>0.56548539452436564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.32210382444385899</v>
+      </c>
+      <c r="D13">
+        <v>0.25727352788693197</v>
+      </c>
+      <c r="E13">
+        <v>0.25727352788693197</v>
+      </c>
+      <c r="F13">
+        <v>0.25780600092369998</v>
+      </c>
+      <c r="G13">
+        <v>0.25804356238189252</v>
+      </c>
+      <c r="H13">
+        <v>0.25812790669059332</v>
+      </c>
+      <c r="I13">
+        <v>0.25809131927809464</v>
+      </c>
+      <c r="J13">
+        <v>0.2580427137142759</v>
+      </c>
+      <c r="K13">
+        <v>0.25796843429493871</v>
+      </c>
+      <c r="L13">
+        <v>0.25790879797188432</v>
+      </c>
+      <c r="M13">
+        <v>0.25807693682588789</v>
+      </c>
+      <c r="N13">
+        <v>0.25825823552835825</v>
+      </c>
+      <c r="O13">
+        <v>0.25854777343975488</v>
+      </c>
+      <c r="P13">
+        <v>0.25907883653115898</v>
+      </c>
+      <c r="Q13">
+        <v>0.26004869611035586</v>
+      </c>
+      <c r="R13">
+        <v>0.26125320919107331</v>
+      </c>
+      <c r="S13">
+        <v>0.26299243115150922</v>
+      </c>
+      <c r="T13">
+        <v>0.26531219402355993</v>
+      </c>
+      <c r="U13">
+        <v>0.26822083001610897</v>
+      </c>
+      <c r="V13">
+        <v>0.27199992366152009</v>
+      </c>
+      <c r="W13">
+        <v>0.27682873782100853</v>
+      </c>
+      <c r="X13">
+        <v>0.28288133799560128</v>
+      </c>
+      <c r="Y13">
+        <v>0.29011173132392676</v>
+      </c>
+      <c r="Z13">
+        <v>0.29894196246043714</v>
+      </c>
+      <c r="AA13">
+        <v>0.30954792399856151</v>
+      </c>
+      <c r="AB13">
+        <v>0.32206273362763377</v>
+      </c>
+      <c r="AC13">
+        <v>0.33614863340503198</v>
+      </c>
+      <c r="AD13">
+        <v>0.35239308511072198</v>
+      </c>
+      <c r="AE13">
+        <v>0.37059248314911358</v>
+      </c>
+      <c r="AF13">
+        <v>0.39113304426510437</v>
+      </c>
+      <c r="AG13">
+        <v>0.41344856261775098</v>
+      </c>
+      <c r="AH13">
+        <v>0.43733287177550689</v>
+      </c>
+      <c r="AI13">
+        <v>0.46216738861733225</v>
+      </c>
+      <c r="AJ13">
+        <v>0.48782865987816593</v>
+      </c>
+      <c r="AK13">
+        <v>0.51426458717224066</v>
+      </c>
+      <c r="AL13">
+        <v>0.54024368472788842</v>
+      </c>
+      <c r="AM13">
+        <v>0.56548539452436564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <f>-'Ricardo Energy &amp; Environment'!G5</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <f>-'Ricardo Energy &amp; Environment'!G11</f>
+        <v>9.8999999999999991E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="16">
+        <f>-'Ricardo Energy &amp; Environment'!G14</f>
+        <v>3.4253333333333323E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <f>-'Ricardo Energy &amp; Environment'!G13</f>
+        <v>2.3999999999999994E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <f>-'Ricardo Energy &amp; Environment'!G12</f>
+        <v>1.7999999999999995E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <f>-'Ricardo Energy &amp; Environment'!G8</f>
+        <v>0.24599999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1418,15 +2358,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -1436,39 +2378,39 @@
     <col min="6" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <f>Data!$B$4</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$3</f>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1480,8 +2422,8 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>Data!$B$4*elec_fraction</f>
-        <v>2.4750000000000001E-2</v>
+        <f>Data!$B3*elec_fraction</f>
+        <v>0.10436163911981032</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1490,16 +2432,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <f>Data!$B$4</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$3</f>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1517,9 +2459,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1528,14 +2470,15 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>Data!$B$4</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$3</f>
+        <v>0.32400000000000001</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f>Data!$B$3*(1-elec_fraction)</f>
+        <v>0.2196383608801897</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1544,9 +2487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1558,12 +2501,11 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>Data!$B$4</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$3</f>
+        <v>0.32400000000000001</v>
       </c>
       <c r="F5">
-        <f>Data!$B$4*(1-elec_fraction)</f>
-        <v>2.0249999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1572,9 +2514,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1598,9 +2540,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1624,9 +2566,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1650,9 +2592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1676,9 +2618,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1696,16 +2638,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f>Data!$B$4</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$3</f>
+        <v>0.32400000000000001</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1726,8 +2668,8 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>Data!$B$4</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$3</f>
+        <v>0.32400000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1737,15 +2679,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -1755,39 +2699,39 @@
     <col min="6" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <f>Data!$B$5</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$4</f>
+        <v>9.8999999999999991E-2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1799,7 +2743,8 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <f>Data!$B$4*elec_fraction</f>
+        <v>3.1888278619942034E-2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1808,16 +2753,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <f>Data!$B$5</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$4</f>
+        <v>9.8999999999999991E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1835,9 +2780,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1846,8 +2791,8 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>Data!$B$5</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$4</f>
+        <v>9.8999999999999991E-2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1862,9 +2807,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1876,10 +2821,12 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f>Data!$B$4</f>
+        <v>9.8999999999999991E-2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f>Data!$B$4*(1-elec_fraction)</f>
+        <v>6.7111721380057957E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1888,9 +2835,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1914,9 +2861,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1940,9 +2887,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1954,8 +2901,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f>Data!$B$5</f>
-        <v>4.4999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1967,9 +2913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1993,9 +2939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2013,15 +2959,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <f>Data!$B$4</f>
+        <v>9.8999999999999991E-2</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2042,8 +2989,8 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>Data!$B$5</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$4</f>
+        <v>9.8999999999999991E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2053,15 +3000,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -2071,39 +3020,39 @@
     <col min="6" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <f>Data!$B$6</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$5</f>
+        <v>3.4253333333333323E-2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2124,16 +3073,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <f>Data!$B$6</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$5</f>
+        <v>3.4253333333333323E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2151,9 +3100,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2162,8 +3111,8 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>Data!$B$6</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$5</f>
+        <v>3.4253333333333323E-2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2178,9 +3127,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2192,8 +3141,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>Data!$B$6</f>
-        <v>4.4999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2205,9 +3153,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2231,9 +3179,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2257,9 +3205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2271,7 +3219,8 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <f>Data!$B$5</f>
+        <v>3.4253333333333323E-2</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2283,9 +3232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2309,9 +3258,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2335,9 +3284,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2358,8 +3307,8 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>Data!$B$6</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$5</f>
+        <v>3.4253333333333323E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2369,15 +3318,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -2387,39 +3338,39 @@
     <col min="6" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <f>Data!$B$7</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$6</f>
+        <v>2.3999999999999994E-2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2440,16 +3391,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <f>Data!$B$7</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$6</f>
+        <v>2.3999999999999994E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2467,9 +3418,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2478,8 +3429,8 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>Data!$B$7</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$6</f>
+        <v>2.3999999999999994E-2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2494,9 +3445,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2508,8 +3459,8 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>Data!$B$7*Data!B18</f>
-        <v>2.4454545454545451E-2</v>
+        <f>Data!$B$6</f>
+        <v>2.3999999999999994E-2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2521,9 +3472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2547,9 +3498,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2573,9 +3524,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2599,9 +3550,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2613,8 +3564,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f>Data!$B$7*Data!B19</f>
-        <v>2.0545454545454544E-2</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2626,9 +3576,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2652,9 +3602,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2675,8 +3625,8 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>Data!$B$7</f>
-        <v>4.4999999999999998E-2</v>
+        <f>Data!$B$6</f>
+        <v>2.3999999999999994E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2686,15 +3636,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -2704,39 +3656,39 @@
     <col min="6" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <f>Data!$B$8</f>
-        <v>0.1</v>
+        <f>Data!$B$7</f>
+        <v>1.7999999999999995E-2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2748,8 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>Data!$B8*elec_fraction</f>
-        <v>5.5000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2758,16 +3709,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <f>Data!$B$8</f>
-        <v>0.1</v>
+        <f>Data!$B$7</f>
+        <v>1.7999999999999995E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2785,9 +3736,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2796,15 +3747,14 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>Data!$B$8</f>
-        <v>0.1</v>
+        <f>Data!$B$7</f>
+        <v>1.7999999999999995E-2</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <f>Data!$B$8*(1-elec_fraction)</f>
-        <v>4.4999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2813,9 +3763,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2827,8 +3777,8 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>Data!$B$8</f>
-        <v>0.1</v>
+        <f>Data!$B$7*1</f>
+        <v>1.7999999999999995E-2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2840,9 +3790,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2866,9 +3816,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2892,9 +3842,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2918,9 +3868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2944,9 +3894,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2964,16 +3914,15 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f>Data!$B$8</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2994,12 +3943,267 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>Data!$B$8</f>
-        <v>0.1</v>
+        <f>Data!$B$7</f>
+        <v>1.7999999999999995E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F4B587-1600-44A9-8AD8-EC719F4898A2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B7266C5-49E0-4226-8E20-CEA56798654D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19AE301D-3A11-4B3A-8B64-EB6CF29AB3D3}"/>
 </file>